--- a/src/main/resources/data/corona_infected_person.xlsx
+++ b/src/main/resources/data/corona_infected_person.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gag20\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gag20\Desktop\springboot\myhome\src\main\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F9B55846-37AC-419E-BE04-4A0EFF55F183}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE127AA0-0B94-4898-83AE-2DD4AB78D8B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5370" yWindow="7095" windowWidth="21660" windowHeight="12660" xr2:uid="{17003D67-3968-402C-A8C7-BCDB08636BDE}"/>
+    <workbookView xWindow="4830" yWindow="2940" windowWidth="21660" windowHeight="12660" xr2:uid="{17003D67-3968-402C-A8C7-BCDB08636BDE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,9 +25,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>감염자 수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>감염자 수2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -392,10 +396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86BF489A-63AA-4010-9180-65A8B7758B46}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -446,6 +450,29 @@
         <v>36</v>
       </c>
     </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>8</v>
+      </c>
+      <c r="G3">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/data/corona_infected_person.xlsx
+++ b/src/main/resources/data/corona_infected_person.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gag20\Desktop\springboot\myhome\src\main\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE127AA0-0B94-4898-83AE-2DD4AB78D8B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{762B7D3B-BF55-4061-9854-1BD1F8EB49EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4830" yWindow="2940" windowWidth="21660" windowHeight="12660" xr2:uid="{17003D67-3968-402C-A8C7-BCDB08636BDE}"/>
   </bookViews>
@@ -27,11 +27,11 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>감염자 수</t>
+    <t>infected</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>감염자 수2</t>
+    <t>infected_2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -39,7 +39,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -50,6 +50,15 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
@@ -73,18 +82,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -399,7 +415,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -451,7 +467,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3">
@@ -475,6 +491,9 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1" display="infected_@" xr:uid="{186B38FC-4186-4E63-A89E-91EAA27A33FA}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>